--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Admin_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Desktop_Admin_Validation_UR.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>CustomerPayment</x:t>
   </x:si>
@@ -303,6 +303,12 @@
   </x:si>
   <x:si>
     <x:t>I enter details including country name "United States"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I cannot register</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AssistDent does not start</x:t>
   </x:si>
   <x:si>
     <x:t>UpgradeClient</x:t>
@@ -761,7 +767,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -781,7 +787,7 @@
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="B5" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1695,7 +1701,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
@@ -1703,7 +1709,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1728,7 +1734,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -1736,17 +1742,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -1754,7 +1760,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -1763,7 +1769,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -1779,12 +1785,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="B12" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
@@ -1792,7 +1798,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4"/>
@@ -1801,7 +1807,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
@@ -1817,12 +1823,12 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="B19" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -1830,7 +1836,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4"/>
@@ -1839,7 +1845,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -1855,7 +1861,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
